--- a/Резы/Респа для ИТ-71б на 2020 год.xlsx
+++ b/Резы/Респа для ИТ-71б на 2020 год.xlsx
@@ -851,8 +851,11 @@
         </is>
       </c>
       <c r="G5" s="6" t="n"/>
-      <c r="H5" s="3" t="n">
-        <v>305</v>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>305
+207</t>
+        </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
@@ -1679,8 +1682,11 @@
           <t>Системы и услуги документальной электросвязи: лекция (общ)</t>
         </is>
       </c>
-      <c r="I6" s="3" t="n">
-        <v>305</v>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>305
+207</t>
+        </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -2494,8 +2500,11 @@
         </is>
       </c>
       <c r="G7" s="6" t="n"/>
-      <c r="H7" s="3" t="n">
-        <v>101</v>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>101
+305</t>
+        </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
@@ -2721,8 +2730,10 @@
           <t>Системы и услуги документальной электросвязи: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="H15" s="3" t="n">
-        <v>305</v>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>305, 302</t>
+        </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
@@ -2887,8 +2898,10 @@
       </c>
       <c r="F21" s="5" t="n"/>
       <c r="G21" s="6" t="n"/>
-      <c r="H21" s="3" t="n">
-        <v>310</v>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>310, 316</t>
+        </is>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
@@ -2914,11 +2927,13 @@
       <c r="E22" s="12" t="n"/>
       <c r="F22" s="12" t="n"/>
       <c r="G22" s="13" t="n"/>
-      <c r="H22" s="9" t="n"/>
+      <c r="H22" s="10" t="n">
+        <v>316</v>
+      </c>
       <c r="I22" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="35">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:G3"/>
@@ -2942,7 +2957,6 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D19:F20"/>
-    <mergeCell ref="H21:H22"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I21:I22"/>
@@ -3180,7 +3194,7 @@
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="7" t="n"/>
       <c r="I7" s="3" t="n">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -3598,7 +3612,7 @@
       <c r="F20" s="15" t="n"/>
       <c r="G20" s="7" t="n"/>
       <c r="I20" s="3" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>

--- a/Резы/Респа для ИТ-71б на 2020 год.xlsx
+++ b/Резы/Респа для ИТ-71б на 2020 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,31 +114,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -173,49 +173,49 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -685,7 +685,7 @@
     <col width="109.75" customWidth="1" min="5" max="5"/>
     <col width="79.3" customWidth="1" min="6" max="6"/>
     <col width="109.75" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
     <col width="22" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -760,7 +760,7 @@
       <c r="G2" s="7" t="n"/>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -1051,7 +1051,7 @@
       <c r="G11" s="13" t="n"/>
       <c r="H11" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I11" s="10" t="inlineStr">
@@ -1180,7 +1180,7 @@
       <c r="G15" s="13" t="n"/>
       <c r="H15" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I15" s="10" t="inlineStr">
@@ -1547,7 +1547,7 @@
       <c r="H2" s="6" t="n"/>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -1864,7 +1864,7 @@
       <c r="H12" s="13" t="n"/>
       <c r="I12" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J12" s="10" t="inlineStr">
@@ -1998,7 +1998,7 @@
       <c r="H16" s="13" t="n"/>
       <c r="I16" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J16" s="10" t="inlineStr">
@@ -2370,7 +2370,7 @@
       <c r="F2" s="7" t="n"/>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -2631,7 +2631,7 @@
       <c r="G12" s="13" t="n"/>
       <c r="H12" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I12" s="10" t="inlineStr">
@@ -2761,7 +2761,7 @@
       <c r="G16" s="13" t="n"/>
       <c r="H16" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I16" s="10" t="inlineStr">
@@ -2999,7 +2999,7 @@
     <col width="86.55" customWidth="1" min="6" max="6"/>
     <col width="93.8" customWidth="1" min="7" max="7"/>
     <col width="26.5" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -3351,7 +3351,7 @@
       <c r="H12" s="14" t="n"/>
       <c r="I12" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J12" s="10" t="inlineStr">
@@ -3457,7 +3457,7 @@
       <c r="H15" s="14" t="n"/>
       <c r="I15" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J15" s="10" t="inlineStr">
